--- a/medicine/Mort/Welbeck_Hill/Welbeck_Hill.xlsx
+++ b/medicine/Mort/Welbeck_Hill/Welbeck_Hill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Welbeck Hill est un site archéologique du Lincolnshire, en Angleterre. Il est situé dans la paroisse civile d'Irby upon Humber, à une dizaine de kilomètres au sud-ouest de la ville de Grimsby.
 Il abrite un cimetière en usage dans les premiers siècles de la période anglo-saxonne de l'histoire de l'Angleterre, entre 425 et 650 environ. Les fouilles menées par l'archéologue amateur Gordon Taylor entre 1962 et 1979 ont permis d'identifier 72 inhumations et 5 crémations, avec un mobilier funéraire varié comprenant des broches, des bractéates, des bagues, des couteaux et des pointes de lance.
-Après être restés en possession de Taylor jusqu'à sa mort, les objets retrouvés à Welbeck Hill sont rachetés par le North Lincolnshire Museum (en) en 2020[1].
+Après être restés en possession de Taylor jusqu'à sa mort, les objets retrouvés à Welbeck Hill sont rachetés par le North Lincolnshire Museum (en) en 2020.
 </t>
         </is>
       </c>
